--- a/react-client/data/clients.xlsx
+++ b/react-client/data/clients.xlsx
@@ -14,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Sergey</t>
+    <t>sergey</t>
   </si>
   <si>
-    <t>Volik</t>
+    <t>volik</t>
   </si>
   <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Phone</t>
+    <t>+380930285396</t>
   </si>
 </sst>
 </file>
@@ -70,9 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -374,42 +369,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>930285396</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>